--- a/data/R2F Quant Comp Data Exit.xlsx
+++ b/data/R2F Quant Comp Data Exit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC9EB23-D12D-9E4D-8127-BE8D12811D83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769B3A1-33F4-AE43-BA24-298749159986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="460" windowWidth="24660" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="149">
   <si>
     <t>Timestamp</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>You were somewhat worse than other workers</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Folivora20</t>
   </si>
 </sst>
 </file>
@@ -738,11 +744,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CB33"/>
+  <dimension ref="A1:CB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="CC35" sqref="CC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8691,6 +8697,486 @@
         <v>24</v>
       </c>
     </row>
+    <row r="34" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6">
+        <v>44208.805103692124</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BV34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BX34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY34" s="1">
+        <v>8</v>
+      </c>
+      <c r="BZ34" s="1">
+        <v>7</v>
+      </c>
+      <c r="CA34" s="1">
+        <v>7</v>
+      </c>
+      <c r="CB34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6">
+        <v>44209.580218356481</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AZ35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BH35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BW35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY35" s="1">
+        <v>7</v>
+      </c>
+      <c r="BZ35" s="1">
+        <v>8</v>
+      </c>
+      <c r="CA35" s="1">
+        <v>7</v>
+      </c>
+      <c r="CB35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CB34">
     <sortCondition ref="B1:B34"/>

--- a/data/R2F Quant Comp Data Exit.xlsx
+++ b/data/R2F Quant Comp Data Exit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7769B3A1-33F4-AE43-BA24-298749159986}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F519A-6FC0-224C-8D51-F68BF8FF0B32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="24660" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="24660" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -154,15 +154,9 @@
     <t>V01vox</t>
   </si>
   <si>
-    <t>pclausen@grundfos.com</t>
-  </si>
-  <si>
     <t>Doughnut*7</t>
   </si>
   <si>
-    <t>mavipasi</t>
-  </si>
-  <si>
     <t>414Roseave!</t>
   </si>
   <si>
@@ -454,19 +448,25 @@
     <t>faucar</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakshita Anand </t>
-  </si>
-  <si>
     <t>Av9!aEyp</t>
   </si>
   <si>
     <t>You were somewhat worse than other workers</t>
   </si>
   <si>
-    <t>Cameron</t>
-  </si>
-  <si>
     <t>Folivora20</t>
+  </si>
+  <si>
+    <t>pclau</t>
+  </si>
+  <si>
+    <t>mavi</t>
+  </si>
+  <si>
+    <t>Rakshita A</t>
+  </si>
+  <si>
+    <t>CG550</t>
   </si>
 </sst>
 </file>
@@ -486,6 +486,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -746,9 +747,9 @@
   </sheetPr>
   <dimension ref="A1:CB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CC35" sqref="CC35"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -761,241 +762,241 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="BA1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BF1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BF1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="BN1" s="5" t="s">
+      <c r="BP1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="BO1" s="5" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="BP1" s="5" t="s">
+      <c r="BR1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="BQ1" s="5" t="s">
+      <c r="BS1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="BR1" s="5" t="s">
+      <c r="BT1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="BS1" s="5" t="s">
+      <c r="BU1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BT1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BY1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="CA1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CB1" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="CA1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="CB1" s="5" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1239,7 +1240,7 @@
         <v>44180.445999039352</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1720,7 +1721,7 @@
         <v>44205.926264652779</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2446,7 +2447,7 @@
         <v>44190.906370405093</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2680,7 +2681,7 @@
         <v>7</v>
       </c>
       <c r="CB8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2688,7 +2689,7 @@
         <v>44201.568379108794</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -2926,7 +2927,7 @@
         <v>44187.732082719907</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
@@ -3168,7 +3169,7 @@
         <v>44179.511538506944</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -3894,7 +3895,7 @@
         <v>44205.213217199074</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -4136,7 +4137,7 @@
         <v>44191.157136875001</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -4620,7 +4621,7 @@
         <v>44180.511878773148</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -4862,7 +4863,7 @@
         <v>44201.709919918983</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
@@ -5102,7 +5103,7 @@
         <v>44201.764723553242</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -5586,7 +5587,7 @@
         <v>44203.580405150467</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>6</v>
@@ -5828,7 +5829,7 @@
         <v>44179.660243090279</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>5</v>
@@ -6070,7 +6071,7 @@
         <v>44181.919295162035</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>5</v>
@@ -6304,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="CB23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6312,7 +6313,7 @@
         <v>44180.701555925931</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
@@ -6554,7 +6555,7 @@
         <v>44201.684216597219</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -6788,7 +6789,7 @@
         <v>4</v>
       </c>
       <c r="CB25" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6796,7 +6797,7 @@
         <v>44179.42281462963</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
@@ -7038,7 +7039,7 @@
         <v>44201.838143229164</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
@@ -7280,7 +7281,7 @@
         <v>44205.267144884259</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -7492,7 +7493,7 @@
         <v>44201.647219467588</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
@@ -7734,7 +7735,7 @@
         <v>44198.732522361111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -8218,7 +8219,7 @@
         <v>44201.723265023145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
@@ -8702,7 +8703,7 @@
         <v>44208.805103692124</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
@@ -8944,7 +8945,7 @@
         <v>44209.580218356481</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
